--- a/biology/Biochimie/Méthylthiolation/Méthylthiolation.xlsx
+++ b/biology/Biochimie/Méthylthiolation/Méthylthiolation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9thylthiolation</t>
+          <t>Méthylthiolation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La méthylthiolation est l'addition d'un groupe méthylthio sur un substrat. 
 Ce substrat peut soit être une protéine comme dans le cas de la protéine ribosomale S12, soit être un ARN de transfert.
